--- a/data/annotation/academic_cq.xlsx
+++ b/data/annotation/academic_cq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuchaoqun/Documents/Projects/RAG_MM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiayewken/Downloads/Projects/Work/MultimodalFinance/data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A7379C-2B56-8A4A-AC0C-E9659BA78C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A3198-160C-A348-AFA0-07BCAC07D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="740">
   <si>
     <t>data_file</t>
   </si>
@@ -2319,6 +2316,9 @@
   </si>
   <si>
     <t>typo error</t>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2409,10 +2409,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2717,11 +2714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L359"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="I362" sqref="I362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2736,7 @@
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>723</v>
       </c>
@@ -2758,7 +2755,7 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>733</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2773,11 +2770,14 @@
       <c r="K1" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2811,8 +2811,12 @@
       <c r="K2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>G2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2846,8 +2850,12 @@
       <c r="K3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2881,8 +2889,12 @@
       <c r="K4" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2916,8 +2928,12 @@
       <c r="K5" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2951,8 +2967,12 @@
       <c r="K6" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="100" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2986,8 +3006,12 @@
       <c r="K7" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3021,8 +3045,12 @@
       <c r="K8" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3056,8 +3084,12 @@
       <c r="K9" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3091,8 +3123,12 @@
       <c r="K10" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3126,8 +3162,12 @@
       <c r="K11" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3161,8 +3201,12 @@
       <c r="K12" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3196,8 +3240,12 @@
       <c r="K13" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3231,8 +3279,12 @@
       <c r="K14" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3266,8 +3318,12 @@
       <c r="K15" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3301,8 +3357,12 @@
       <c r="K16" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3336,8 +3396,12 @@
       <c r="K17" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3371,8 +3435,12 @@
       <c r="K18" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3406,8 +3474,12 @@
       <c r="K19" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3441,8 +3513,12 @@
       <c r="K20" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3476,8 +3552,12 @@
       <c r="K21" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3514,8 +3594,12 @@
       <c r="L22" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3549,8 +3633,12 @@
       <c r="K23" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3584,8 +3672,12 @@
       <c r="K24" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3619,8 +3711,12 @@
       <c r="K25" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3654,8 +3750,12 @@
       <c r="K26" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3689,8 +3789,12 @@
       <c r="K27" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3724,8 +3828,12 @@
       <c r="K28" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="100" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3759,8 +3867,12 @@
       <c r="K29" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3794,8 +3906,12 @@
       <c r="K30" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3829,8 +3945,12 @@
       <c r="K31" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3864,8 +3984,12 @@
       <c r="K32" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3887,8 +4011,12 @@
       <c r="G33" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3910,8 +4038,12 @@
       <c r="G34" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3933,8 +4065,12 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3971,8 +4107,12 @@
       <c r="L36" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4009,8 +4149,12 @@
       <c r="L37" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4044,8 +4188,12 @@
       <c r="K38" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4067,8 +4215,12 @@
       <c r="G39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4090,8 +4242,12 @@
       <c r="G40" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4113,8 +4269,12 @@
       <c r="G41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4136,8 +4296,12 @@
       <c r="G42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4159,8 +4323,12 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4182,8 +4350,12 @@
       <c r="G44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4205,8 +4377,12 @@
       <c r="G45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4228,8 +4404,12 @@
       <c r="G46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4257,8 +4437,12 @@
       <c r="I47" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4280,8 +4464,12 @@
       <c r="G48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4303,8 +4491,12 @@
       <c r="G49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4326,8 +4518,12 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4349,8 +4545,12 @@
       <c r="G51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4372,8 +4572,12 @@
       <c r="G52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4395,8 +4599,12 @@
       <c r="G53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4418,8 +4626,12 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4441,8 +4653,12 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4464,8 +4680,12 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4487,8 +4707,12 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4510,8 +4734,12 @@
       <c r="G58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4533,8 +4761,12 @@
       <c r="G59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4556,8 +4788,12 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4579,8 +4815,12 @@
       <c r="G61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4602,8 +4842,12 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4625,8 +4869,12 @@
       <c r="G63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4648,8 +4896,12 @@
       <c r="G64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4671,8 +4923,12 @@
       <c r="G65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4694,8 +4950,12 @@
       <c r="G66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4717,8 +4977,12 @@
       <c r="G67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="1">G67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4740,8 +5004,12 @@
       <c r="G68" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4763,8 +5031,12 @@
       <c r="G69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4786,8 +5058,12 @@
       <c r="G70" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4809,8 +5085,12 @@
       <c r="G71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4832,8 +5112,12 @@
       <c r="G72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4855,8 +5139,12 @@
       <c r="G73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4878,8 +5166,12 @@
       <c r="G74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4901,8 +5193,12 @@
       <c r="G75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4924,8 +5220,12 @@
       <c r="G76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4947,8 +5247,12 @@
       <c r="G77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4970,8 +5274,12 @@
       <c r="G78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4993,8 +5301,12 @@
       <c r="G79" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5016,8 +5328,12 @@
       <c r="G80" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5039,8 +5355,12 @@
       <c r="G81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5062,8 +5382,12 @@
       <c r="G82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5085,8 +5409,12 @@
       <c r="G83" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5111,8 +5439,12 @@
       <c r="J84" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5137,8 +5469,12 @@
       <c r="J85" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5160,8 +5496,12 @@
       <c r="G86" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5183,8 +5523,12 @@
       <c r="G87" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5206,8 +5550,12 @@
       <c r="G88" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5229,8 +5577,12 @@
       <c r="G89" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5252,8 +5604,12 @@
       <c r="G90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5275,8 +5631,12 @@
       <c r="G91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5298,8 +5658,12 @@
       <c r="G92" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5321,8 +5685,12 @@
       <c r="G93" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5344,8 +5712,12 @@
       <c r="G94" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5367,8 +5739,12 @@
       <c r="G95" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5390,8 +5766,12 @@
       <c r="G96" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5413,8 +5793,12 @@
       <c r="G97" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5436,8 +5820,12 @@
       <c r="G98" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5459,8 +5847,12 @@
       <c r="G99" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5482,8 +5874,12 @@
       <c r="G100" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5508,8 +5904,12 @@
       <c r="I101" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5531,8 +5931,12 @@
       <c r="G102" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5554,8 +5958,12 @@
       <c r="G103" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5577,8 +5985,12 @@
       <c r="G104" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5600,8 +6012,12 @@
       <c r="G105" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5623,8 +6039,12 @@
       <c r="G106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5646,8 +6066,12 @@
       <c r="G107" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5672,8 +6096,12 @@
       <c r="J108" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5695,8 +6123,12 @@
       <c r="G109" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5721,8 +6153,12 @@
       <c r="H110" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5744,8 +6180,12 @@
       <c r="G111" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5770,8 +6210,12 @@
       <c r="H112" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5793,8 +6237,12 @@
       <c r="G113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5816,8 +6264,12 @@
       <c r="G114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5839,8 +6291,12 @@
       <c r="G115" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5862,8 +6318,12 @@
       <c r="G116" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5885,8 +6345,12 @@
       <c r="G117" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5908,8 +6372,12 @@
       <c r="G118" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5931,8 +6399,12 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5954,8 +6426,12 @@
       <c r="G120" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5977,8 +6453,12 @@
       <c r="G121" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6000,8 +6480,12 @@
       <c r="G122" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6023,8 +6507,12 @@
       <c r="G123" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6046,8 +6534,12 @@
       <c r="G124" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6069,8 +6561,12 @@
       <c r="G125" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6098,8 +6594,12 @@
       <c r="J126" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6121,8 +6621,12 @@
       <c r="G127" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6144,8 +6648,12 @@
       <c r="G128" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6167,8 +6675,12 @@
       <c r="G129" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6190,8 +6702,12 @@
       <c r="G130" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="100" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6213,8 +6729,12 @@
       <c r="G131" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <f t="shared" ref="M131:M194" si="2">G131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6236,8 +6756,12 @@
       <c r="G132" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6259,8 +6783,12 @@
       <c r="G133" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6282,8 +6810,12 @@
       <c r="G134" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6305,8 +6837,12 @@
       <c r="G135" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6328,8 +6864,12 @@
       <c r="G136" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6354,8 +6894,12 @@
       <c r="K137" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6377,8 +6921,12 @@
       <c r="G138" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6400,8 +6948,12 @@
       <c r="G139" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6426,8 +6978,12 @@
       <c r="H140" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6449,8 +7005,12 @@
       <c r="G141" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="100" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6472,8 +7032,12 @@
       <c r="G142" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6495,8 +7059,12 @@
       <c r="G143" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6518,8 +7086,12 @@
       <c r="G144" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6547,8 +7119,12 @@
       <c r="L145" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6570,8 +7146,12 @@
       <c r="G146" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6593,8 +7173,12 @@
       <c r="G147" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6616,8 +7200,12 @@
       <c r="G148" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6639,8 +7227,12 @@
       <c r="G149" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6662,8 +7254,12 @@
       <c r="G150" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6685,8 +7281,12 @@
       <c r="G151" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6708,8 +7308,12 @@
       <c r="G152" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6731,8 +7335,12 @@
       <c r="G153" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6754,8 +7362,12 @@
       <c r="G154" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6777,8 +7389,12 @@
       <c r="G155" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6800,8 +7416,12 @@
       <c r="G156" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6823,8 +7443,12 @@
       <c r="G157" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6846,8 +7470,12 @@
       <c r="G158" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6869,8 +7497,12 @@
       <c r="G159" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6892,8 +7524,12 @@
       <c r="G160" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6915,8 +7551,12 @@
       <c r="G161" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6938,8 +7578,12 @@
       <c r="G162" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" ht="100" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6964,8 +7608,12 @@
       <c r="H163" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6987,8 +7635,12 @@
       <c r="G164" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7010,8 +7662,12 @@
       <c r="G165" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7033,8 +7689,12 @@
       <c r="G166" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7056,8 +7716,12 @@
       <c r="G167" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7079,8 +7743,12 @@
       <c r="G168" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7102,8 +7770,12 @@
       <c r="G169" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7125,8 +7797,12 @@
       <c r="G170" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7148,8 +7824,12 @@
       <c r="G171" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7174,8 +7854,12 @@
       <c r="I172" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7197,8 +7881,12 @@
       <c r="G173" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7220,8 +7908,12 @@
       <c r="G174" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7243,8 +7935,12 @@
       <c r="G175" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7266,8 +7962,12 @@
       <c r="G176" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7289,8 +7989,12 @@
       <c r="G177" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7312,8 +8016,12 @@
       <c r="G178" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7335,8 +8043,12 @@
       <c r="G179" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7358,8 +8070,12 @@
       <c r="G180" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7381,8 +8097,12 @@
       <c r="G181" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7404,8 +8124,12 @@
       <c r="G182" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7427,8 +8151,12 @@
       <c r="G183" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7450,8 +8178,12 @@
       <c r="G184" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7473,8 +8205,12 @@
       <c r="G185" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7496,8 +8232,12 @@
       <c r="G186" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7519,8 +8259,12 @@
       <c r="G187" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7548,8 +8292,12 @@
       <c r="I188" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7571,8 +8319,12 @@
       <c r="G189" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7594,8 +8346,12 @@
       <c r="G190" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7617,8 +8373,12 @@
       <c r="G191" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -7640,8 +8400,12 @@
       <c r="G192" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -7663,8 +8427,12 @@
       <c r="G193" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -7689,8 +8457,12 @@
       <c r="J194" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7712,8 +8484,12 @@
       <c r="G195" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <f t="shared" ref="M195:M258" si="3">G195</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -7735,8 +8511,12 @@
       <c r="G196" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -7758,8 +8538,12 @@
       <c r="G197" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -7781,8 +8565,12 @@
       <c r="G198" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7804,8 +8592,12 @@
       <c r="G199" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7827,8 +8619,12 @@
       <c r="G200" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7850,8 +8646,12 @@
       <c r="G201" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7873,8 +8673,12 @@
       <c r="G202" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7896,8 +8700,12 @@
       <c r="G203" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7919,8 +8727,12 @@
       <c r="G204" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7942,8 +8754,12 @@
       <c r="G205" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7965,8 +8781,12 @@
       <c r="G206" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7997,8 +8817,12 @@
       <c r="J207" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8020,8 +8844,12 @@
       <c r="G208" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8043,8 +8871,12 @@
       <c r="G209" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8069,8 +8901,12 @@
       <c r="J210" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8092,8 +8928,12 @@
       <c r="G211" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8121,8 +8961,12 @@
       <c r="J212" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8144,8 +8988,12 @@
       <c r="G213" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8167,8 +9015,12 @@
       <c r="G214" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8190,8 +9042,12 @@
       <c r="G215" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8213,8 +9069,12 @@
       <c r="G216" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8239,8 +9099,12 @@
       <c r="J217" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -8262,8 +9126,12 @@
       <c r="G218" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -8285,8 +9153,12 @@
       <c r="G219" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -8311,8 +9183,12 @@
       <c r="J220" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -8334,8 +9210,12 @@
       <c r="G221" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -8357,8 +9237,12 @@
       <c r="G222" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -8380,8 +9264,12 @@
       <c r="G223" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -8403,8 +9291,12 @@
       <c r="G224" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -8429,8 +9321,12 @@
       <c r="J225" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -8452,8 +9348,12 @@
       <c r="G226" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8475,8 +9375,12 @@
       <c r="G227" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -8498,8 +9402,12 @@
       <c r="G228" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -8521,8 +9429,12 @@
       <c r="G229" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -8544,8 +9456,12 @@
       <c r="G230" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8570,8 +9486,12 @@
       <c r="J231" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8593,8 +9513,12 @@
       <c r="G232" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8616,8 +9540,12 @@
       <c r="G233" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8639,8 +9567,12 @@
       <c r="G234" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8662,8 +9594,12 @@
       <c r="G235" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8685,8 +9621,12 @@
       <c r="G236" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8708,8 +9648,12 @@
       <c r="G237" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8731,8 +9675,12 @@
       <c r="G238" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8754,8 +9702,12 @@
       <c r="G239" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -8777,8 +9729,12 @@
       <c r="G240" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -8800,8 +9756,12 @@
       <c r="G241" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -8823,8 +9783,12 @@
       <c r="G242" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8846,8 +9810,12 @@
       <c r="G243" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -8869,8 +9837,12 @@
       <c r="G244" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -8892,8 +9864,12 @@
       <c r="G245" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -8915,8 +9891,12 @@
       <c r="G246" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8938,8 +9918,12 @@
       <c r="G247" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -8961,8 +9945,12 @@
       <c r="G248" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -8984,8 +9972,12 @@
       <c r="G249" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9007,8 +9999,12 @@
       <c r="G250" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9030,8 +10026,12 @@
       <c r="G251" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9053,8 +10053,12 @@
       <c r="G252" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9076,8 +10080,12 @@
       <c r="G253" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9099,8 +10107,12 @@
       <c r="G254" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9122,8 +10134,12 @@
       <c r="G255" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9145,8 +10161,12 @@
       <c r="G256" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9168,8 +10188,12 @@
       <c r="G257" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9191,8 +10215,12 @@
       <c r="G258" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9214,8 +10242,12 @@
       <c r="G259" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <f t="shared" ref="M259:M322" si="4">G259</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9237,8 +10269,12 @@
       <c r="G260" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9260,8 +10296,12 @@
       <c r="G261" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9283,8 +10323,12 @@
       <c r="G262" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9306,8 +10350,12 @@
       <c r="G263" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9329,8 +10377,12 @@
       <c r="G264" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9355,8 +10407,12 @@
       <c r="K265" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -9378,8 +10434,12 @@
       <c r="G266" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9404,8 +10464,12 @@
       <c r="J267" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -9430,8 +10494,12 @@
       <c r="J268" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" ht="100" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -9453,8 +10521,12 @@
       <c r="G269" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -9476,8 +10548,12 @@
       <c r="G270" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9499,8 +10575,12 @@
       <c r="G271" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -9522,8 +10602,12 @@
       <c r="G272" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -9548,8 +10632,12 @@
       <c r="J273" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -9571,8 +10659,12 @@
       <c r="G274" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9594,8 +10686,12 @@
       <c r="G275" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -9617,8 +10713,12 @@
       <c r="G276" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -9640,8 +10740,12 @@
       <c r="G277" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -9669,8 +10773,12 @@
       <c r="L278" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9695,8 +10803,12 @@
       <c r="J279" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -9718,8 +10830,12 @@
       <c r="G280" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -9741,8 +10857,12 @@
       <c r="G281" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -9764,8 +10884,12 @@
       <c r="G282" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9787,8 +10911,12 @@
       <c r="G283" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -9810,8 +10938,12 @@
       <c r="G284" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -9833,8 +10965,12 @@
       <c r="G285" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -9856,8 +10992,12 @@
       <c r="G286" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9879,8 +11019,12 @@
       <c r="G287" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -9902,8 +11046,12 @@
       <c r="G288" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -9925,8 +11073,12 @@
       <c r="G289" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -9948,8 +11100,12 @@
       <c r="G290" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9971,8 +11127,12 @@
       <c r="G291" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -9994,8 +11154,12 @@
       <c r="G292" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M292">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10017,8 +11181,12 @@
       <c r="G293" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M293">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10040,8 +11208,12 @@
       <c r="G294" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M294">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10063,8 +11235,12 @@
       <c r="G295" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M295">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10086,8 +11262,12 @@
       <c r="G296" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M296">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10109,8 +11289,12 @@
       <c r="G297" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M297">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10135,8 +11319,12 @@
       <c r="I298" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10164,8 +11352,12 @@
       <c r="J299" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10187,8 +11379,12 @@
       <c r="G300" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="M300">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10210,8 +11406,12 @@
       <c r="G301" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M301">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10236,8 +11436,12 @@
       <c r="L302" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10259,8 +11463,12 @@
       <c r="G303" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M303">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10282,8 +11490,12 @@
       <c r="G304" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M304">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10305,8 +11517,12 @@
       <c r="G305" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M305">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10328,8 +11544,12 @@
       <c r="G306" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M306">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10351,8 +11571,12 @@
       <c r="G307" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M307">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10377,8 +11601,12 @@
       <c r="J308" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10400,8 +11628,12 @@
       <c r="G309" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+      <c r="M309">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10426,8 +11658,12 @@
       <c r="H310" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10449,8 +11685,12 @@
       <c r="G311" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M311">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10472,8 +11712,12 @@
       <c r="G312" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M312">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10495,8 +11739,12 @@
       <c r="G313" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M313">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10518,8 +11766,12 @@
       <c r="G314" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M314">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10541,8 +11793,12 @@
       <c r="G315" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" ht="80" x14ac:dyDescent="0.25">
+      <c r="M315">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -10564,8 +11820,12 @@
       <c r="G316" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M316">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -10587,8 +11847,12 @@
       <c r="G317" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M317">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -10610,8 +11874,12 @@
       <c r="G318" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M318">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10636,8 +11904,12 @@
       <c r="I319" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -10659,8 +11931,12 @@
       <c r="G320" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" ht="100" x14ac:dyDescent="0.25">
+      <c r="M320">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -10682,8 +11958,12 @@
       <c r="G321" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M321">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -10708,8 +11988,12 @@
       <c r="J322" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10731,8 +12015,12 @@
       <c r="G323" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M323">
+        <f t="shared" ref="M323:M358" si="5">G323</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -10754,8 +12042,12 @@
       <c r="G324" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M324">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -10777,8 +12069,12 @@
       <c r="G325" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M325">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -10800,8 +12096,12 @@
       <c r="G326" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M326">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10826,8 +12126,12 @@
       <c r="L327" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M327">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -10849,8 +12153,12 @@
       <c r="G328" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" ht="40" x14ac:dyDescent="0.25">
+      <c r="M328">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -10872,8 +12180,12 @@
       <c r="G329" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="M329">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -10895,8 +12207,12 @@
       <c r="G330" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M330">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10918,8 +12234,12 @@
       <c r="G331" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M331">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -10941,8 +12261,12 @@
       <c r="G332" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M332">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -10964,8 +12288,12 @@
       <c r="G333" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" ht="80" x14ac:dyDescent="0.25">
+      <c r="M333">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -10987,8 +12315,12 @@
       <c r="G334" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M334">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11010,8 +12342,12 @@
       <c r="G335" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M335">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11033,8 +12369,12 @@
       <c r="G336" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M336">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11056,8 +12396,12 @@
       <c r="G337" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M337">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11079,8 +12423,12 @@
       <c r="G338" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" ht="100" x14ac:dyDescent="0.25">
+      <c r="M338">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11102,8 +12450,12 @@
       <c r="G339" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M339">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11125,8 +12477,12 @@
       <c r="G340" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M340">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11148,8 +12504,12 @@
       <c r="G341" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M341">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11171,8 +12531,12 @@
       <c r="G342" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M342">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11194,8 +12558,12 @@
       <c r="G343" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M343">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11217,8 +12585,12 @@
       <c r="G344" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M344">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11240,8 +12612,12 @@
       <c r="G345" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M345">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11266,8 +12642,12 @@
       <c r="J346" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M346">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11289,8 +12669,12 @@
       <c r="G347" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M347">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11312,8 +12696,12 @@
       <c r="G348" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="M348">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11335,8 +12723,12 @@
       <c r="G349" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M349">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11358,8 +12750,12 @@
       <c r="G350" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" ht="40" x14ac:dyDescent="0.25">
+      <c r="M350">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11384,8 +12780,12 @@
       <c r="J351" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="M351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11410,8 +12810,12 @@
       <c r="K352" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M352">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11436,8 +12840,12 @@
       <c r="J353" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M353">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11459,8 +12867,12 @@
       <c r="G354" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M354">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11482,8 +12894,12 @@
       <c r="G355" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M355">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11505,8 +12921,12 @@
       <c r="G356" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="M356">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11528,8 +12948,12 @@
       <c r="G357" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" ht="40" x14ac:dyDescent="0.25">
+      <c r="M357">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="40" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11551,11 +12975,9 @@
       <c r="G358" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G359" s="4">
-        <f>SUM(G2:G358)</f>
-        <v>311</v>
+      <c r="M358">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
